--- a/teaching/traditional_assets/database/data/kazakhstan/kazakhstan_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/kazakhstan/kazakhstan_brokerage_investment_banking.xlsx
@@ -597,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.03500715018386252</v>
+        <v>0.01686872651965528</v>
       </c>
       <c r="J2">
-        <v>0.02958568887220239</v>
+        <v>0.01402212891946345</v>
       </c>
       <c r="K2">
-        <v>28.7</v>
+        <v>55.4</v>
       </c>
       <c r="L2">
-        <v>0.2928571428571429</v>
+        <v>0.3325330132052821</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,55 +630,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>80.90000000000001</v>
+        <v>443.4</v>
       </c>
       <c r="V2">
-        <v>0.0951540813926135</v>
+        <v>0.148076409297355</v>
       </c>
       <c r="W2">
-        <v>0.2611464968152866</v>
+        <v>0.4140508221225709</v>
       </c>
       <c r="X2">
-        <v>0.05526561604696859</v>
+        <v>0.03990200775101115</v>
       </c>
       <c r="Y2">
-        <v>0.205880880768318</v>
+        <v>0.3741488143715598</v>
       </c>
       <c r="Z2">
-        <v>0.5344487783685713</v>
+        <v>0.9970772899082292</v>
       </c>
       <c r="AA2">
-        <v>0.0158120352749412</v>
+        <v>0.01398114630176242</v>
       </c>
       <c r="AB2">
-        <v>0.05353900846394893</v>
+        <v>0.03917168479431483</v>
       </c>
       <c r="AC2">
-        <v>-0.03772697318900774</v>
+        <v>-0.02519053849255241</v>
       </c>
       <c r="AD2">
-        <v>117.3</v>
+        <v>249.3</v>
       </c>
       <c r="AE2">
-        <v>10.84649640990737</v>
+        <v>15.79835080912715</v>
       </c>
       <c r="AF2">
-        <v>128.1464964099074</v>
+        <v>265.0983508091272</v>
       </c>
       <c r="AG2">
-        <v>47.24649640990737</v>
+        <v>-178.3016491908728</v>
       </c>
       <c r="AH2">
-        <v>0.130982731455724</v>
+        <v>0.08133102774643836</v>
       </c>
       <c r="AI2">
-        <v>0.4886490312137728</v>
+        <v>0.6014050422886429</v>
       </c>
       <c r="AJ2">
-        <v>0.05264547424153918</v>
+        <v>-0.06331513568751702</v>
       </c>
       <c r="AK2">
-        <v>0.260531619552845</v>
+        <v>68.53408592380393</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>20.94642857142857</v>
+        <v>41.75879396984925</v>
       </c>
       <c r="AP2">
-        <v>8.43687435891203</v>
+        <v>-29.86627289629361</v>
       </c>
     </row>
     <row r="3">
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.03500715018386252</v>
+        <v>0.01686872651965528</v>
       </c>
       <c r="J3">
-        <v>0.02958568887220239</v>
+        <v>0.01402212891946345</v>
       </c>
       <c r="K3">
-        <v>28.7</v>
+        <v>55.4</v>
       </c>
       <c r="L3">
-        <v>0.2928571428571429</v>
+        <v>0.3325330132052821</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,55 +749,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>80.90000000000001</v>
+        <v>443.4</v>
       </c>
       <c r="V3">
-        <v>0.0951540813926135</v>
+        <v>0.148076409297355</v>
       </c>
       <c r="W3">
-        <v>0.2611464968152866</v>
+        <v>0.4140508221225709</v>
       </c>
       <c r="X3">
-        <v>0.05526561604696859</v>
+        <v>0.03990200775101115</v>
       </c>
       <c r="Y3">
-        <v>0.205880880768318</v>
+        <v>0.3741488143715598</v>
       </c>
       <c r="Z3">
-        <v>0.5344487783685713</v>
+        <v>0.9970772899082292</v>
       </c>
       <c r="AA3">
-        <v>0.0158120352749412</v>
+        <v>0.01398114630176242</v>
       </c>
       <c r="AB3">
-        <v>0.05353900846394893</v>
+        <v>0.03917168479431483</v>
       </c>
       <c r="AC3">
-        <v>-0.03772697318900774</v>
+        <v>-0.02519053849255241</v>
       </c>
       <c r="AD3">
-        <v>117.3</v>
+        <v>249.3</v>
       </c>
       <c r="AE3">
-        <v>10.84649640990737</v>
+        <v>15.79835080912715</v>
       </c>
       <c r="AF3">
-        <v>128.1464964099074</v>
+        <v>265.0983508091272</v>
       </c>
       <c r="AG3">
-        <v>47.24649640990737</v>
+        <v>-178.3016491908728</v>
       </c>
       <c r="AH3">
-        <v>0.130982731455724</v>
+        <v>0.08133102774643836</v>
       </c>
       <c r="AI3">
-        <v>0.4886490312137728</v>
+        <v>0.6014050422886429</v>
       </c>
       <c r="AJ3">
-        <v>0.05264547424153918</v>
+        <v>-0.06331513568751702</v>
       </c>
       <c r="AK3">
-        <v>0.260531619552845</v>
+        <v>68.53408592380393</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>20.94642857142857</v>
+        <v>41.75879396984925</v>
       </c>
       <c r="AP3">
-        <v>8.43687435891203</v>
+        <v>-29.86627289629361</v>
       </c>
     </row>
   </sheetData>
